--- a/nebulas/firebasedata/data/2.2埋点需求.xlsx
+++ b/nebulas/firebasedata/data/2.2埋点需求.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="171">
   <si>
     <t>nas nano2.0埋点统计测试结果</t>
   </si>
@@ -517,6 +517,30 @@
   </si>
   <si>
     <t>Home_News_Clic</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hock_ID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页下方</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页下方22</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hock_IDWEJ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页下方222323</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hock_IDWEJ33</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -739,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -770,20 +794,23 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1109,10 +1136,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1138,13 +1165,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6">
@@ -1356,13 +1383,13 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="17">
@@ -1377,7 +1404,7 @@
       <c r="D17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="23" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1394,7 +1421,7 @@
       <c r="D18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="27"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="17">
@@ -1409,7 +1436,7 @@
       <c r="D19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="23" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1426,7 +1453,7 @@
       <c r="D20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="28"/>
+      <c r="E20" s="31"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="17">
@@ -1441,7 +1468,7 @@
       <c r="D21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="27"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17">
@@ -1456,7 +1483,7 @@
       <c r="D22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="23" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1473,7 +1500,7 @@
       <c r="D23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="27"/>
+      <c r="E23" s="24"/>
     </row>
     <row r="24" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A24" s="17">
@@ -1488,7 +1515,7 @@
       <c r="D24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="23" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1505,16 +1532,16 @@
       <c r="D25" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A27" s="18">
@@ -1564,6 +1591,57 @@
         <v>18</v>
       </c>
       <c r="E29" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="20" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A30" s="18">
+        <v>24</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="21" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A31" s="18">
+        <v>25</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="22" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A32" s="18">
+        <v>25</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="19" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1590,7 +1668,9 @@
   </sheetPr>
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1599,28 +1679,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="30"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
+      <c r="D2" s="33"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
@@ -1628,7 +1708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>20</v>
       </c>
@@ -1642,7 +1722,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>32</v>
       </c>
@@ -1656,7 +1736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>34</v>
       </c>
@@ -1670,7 +1750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>38</v>
       </c>
@@ -1684,7 +1764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>44</v>
       </c>
@@ -1698,7 +1778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>53</v>
       </c>
@@ -1712,7 +1792,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>57</v>
       </c>
@@ -1726,7 +1806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>61</v>
       </c>
@@ -1740,7 +1820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>65</v>
       </c>
@@ -1754,7 +1834,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>69</v>
       </c>
@@ -1768,7 +1848,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>73</v>
       </c>
@@ -1782,7 +1862,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>76</v>
       </c>
@@ -1796,7 +1876,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>78</v>
       </c>
@@ -1810,7 +1890,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>80</v>
       </c>
@@ -1824,7 +1904,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>82</v>
       </c>
@@ -1838,7 +1918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>84</v>
       </c>
@@ -1852,7 +1932,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>86</v>
       </c>
@@ -1866,7 +1946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>88</v>
       </c>
@@ -1880,7 +1960,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>90</v>
       </c>
@@ -1894,7 +1974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>92</v>
       </c>
